--- a/index/字数统计.xlsx
+++ b/index/字数统计.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="27729"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14640" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14620" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="25">
   <si>
     <t>*</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -42,6 +42,67 @@
   <si>
     <t>*</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>14章</t>
+  </si>
+  <si>
+    <t>1章</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2章</t>
+  </si>
+  <si>
+    <t>3章</t>
+  </si>
+  <si>
+    <t>4章</t>
+  </si>
+  <si>
+    <t>5章</t>
+  </si>
+  <si>
+    <t>6章</t>
+  </si>
+  <si>
+    <t>7章</t>
+  </si>
+  <si>
+    <t>8章</t>
+  </si>
+  <si>
+    <t>9章</t>
+  </si>
+  <si>
+    <t>10章</t>
+  </si>
+  <si>
+    <t>11章</t>
+  </si>
+  <si>
+    <t>12章</t>
+  </si>
+  <si>
+    <t>13章</t>
+  </si>
+  <si>
+    <t>15章</t>
+  </si>
+  <si>
+    <t>16章</t>
+  </si>
+  <si>
+    <t>17章</t>
+  </si>
+  <si>
+    <t>18章</t>
+  </si>
+  <si>
+    <t>19章</t>
+  </si>
+  <si>
+    <t>20章</t>
   </si>
 </sst>
 </file>
@@ -382,7 +443,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -390,10 +451,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:C15"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0"/>
@@ -401,7 +462,10 @@
     <col min="1" max="1" width="24.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:3">
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>6</v>
+      </c>
       <c r="B1">
         <v>0</v>
       </c>
@@ -409,7 +473,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="2:3">
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
       <c r="B2">
         <v>0</v>
       </c>
@@ -417,7 +484,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="2:3">
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
       <c r="B3">
         <v>0</v>
       </c>
@@ -425,12 +495,18 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="2:3">
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
       <c r="B4">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="2:3">
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>10</v>
+      </c>
       <c r="B5">
         <v>0</v>
       </c>
@@ -438,7 +514,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="2:3">
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
       <c r="B6">
         <v>0</v>
       </c>
@@ -446,7 +525,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="2:3">
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
       <c r="B7">
         <v>0</v>
       </c>
@@ -454,7 +536,10 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="2:3">
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>13</v>
+      </c>
       <c r="B8">
         <v>0</v>
       </c>
@@ -462,7 +547,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="2:3">
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
+        <v>14</v>
+      </c>
       <c r="B9">
         <v>0</v>
       </c>
@@ -470,7 +558,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="2:3">
+    <row r="10" spans="1:3">
+      <c r="A10" t="s">
+        <v>15</v>
+      </c>
       <c r="B10">
         <v>0</v>
       </c>
@@ -478,7 +569,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="2:3">
+    <row r="11" spans="1:3">
+      <c r="A11" t="s">
+        <v>16</v>
+      </c>
       <c r="B11">
         <v>0</v>
       </c>
@@ -486,7 +580,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="2:3">
+    <row r="12" spans="1:3">
+      <c r="A12" t="s">
+        <v>17</v>
+      </c>
       <c r="B12">
         <v>0</v>
       </c>
@@ -494,7 +591,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="2:3">
+    <row r="13" spans="1:3">
+      <c r="A13" t="s">
+        <v>18</v>
+      </c>
       <c r="B13">
         <v>0</v>
       </c>
@@ -502,18 +602,51 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="2:3">
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
+        <v>5</v>
+      </c>
       <c r="B14">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="C14" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="2:3">
-      <c r="B15">
-        <f>SUM(B1:B14)</f>
-        <v>0</v>
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="B21">
+        <f>SUM(B1:B20)</f>
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/index/字数统计.xlsx
+++ b/index/字数统计.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="27729"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14620" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14540" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -443,7 +443,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -454,7 +454,7 @@
   <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0"/>
@@ -607,7 +607,7 @@
         <v>5</v>
       </c>
       <c r="B14">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C14" t="s">
         <v>4</v>
@@ -646,7 +646,7 @@
     <row r="21" spans="1:2">
       <c r="B21">
         <f>SUM(B1:B20)</f>
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/index/字数统计.xlsx
+++ b/index/字数统计.xlsx
@@ -1,21 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="27729"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28109"/>
   <workbookPr autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liu.yan/Desktop/code/4book/index/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14540" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14540" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
-    </ext>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
     </ext>
   </extLst>
 </workbook>
@@ -172,11 +177,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="5">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="普通" xfId="0" builtinId="0"/>
+    <cellStyle name="已访问的超链接" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="4" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
@@ -443,7 +448,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -454,15 +459,15 @@
   <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="24.42578125" customWidth="1"/>
+    <col min="1" max="1" width="24.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>6</v>
       </c>
@@ -473,7 +478,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -484,7 +489,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -495,7 +500,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -503,7 +508,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -514,7 +519,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -525,7 +530,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -536,18 +541,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="C8" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>14</v>
       </c>
@@ -558,7 +563,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>15</v>
       </c>
@@ -569,7 +574,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>16</v>
       </c>
@@ -580,7 +585,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>17</v>
       </c>
@@ -591,7 +596,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>18</v>
       </c>
@@ -602,7 +607,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>5</v>
       </c>
@@ -613,50 +618,45 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B21">
         <f>SUM(B1:B20)</f>
-        <v>13</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
--- a/index/字数统计.xlsx
+++ b/index/字数统计.xlsx
@@ -546,7 +546,7 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C8" t="s">
         <v>0</v>
@@ -651,7 +651,7 @@
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B21">
         <f>SUM(B1:B20)</f>
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>

--- a/index/字数统计.xlsx
+++ b/index/字数统计.xlsx
@@ -546,7 +546,7 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
         <v>0</v>
@@ -651,7 +651,7 @@
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B21">
         <f>SUM(B1:B20)</f>
-        <v>29</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>

--- a/index/字数统计.xlsx
+++ b/index/字数统计.xlsx
@@ -546,7 +546,7 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="C8" t="s">
         <v>0</v>
@@ -651,7 +651,7 @@
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B21">
         <f>SUM(B1:B20)</f>
-        <v>36</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>

--- a/index/字数统计.xlsx
+++ b/index/字数统计.xlsx
@@ -546,7 +546,7 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="C8" t="s">
         <v>0</v>
@@ -651,7 +651,7 @@
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B21">
         <f>SUM(B1:B20)</f>
-        <v>40</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>

--- a/index/字数统计.xlsx
+++ b/index/字数统计.xlsx
@@ -546,7 +546,7 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="C8" t="s">
         <v>0</v>
@@ -651,7 +651,7 @@
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B21">
         <f>SUM(B1:B20)</f>
-        <v>47</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>

--- a/index/字数统计.xlsx
+++ b/index/字数统计.xlsx
@@ -546,7 +546,7 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="C8" t="s">
         <v>0</v>
@@ -651,7 +651,7 @@
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B21">
         <f>SUM(B1:B20)</f>
-        <v>55</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>

--- a/index/字数统计.xlsx
+++ b/index/字数统计.xlsx
@@ -459,7 +459,7 @@
   <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -483,7 +483,7 @@
         <v>7</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="C2" t="s">
         <v>1</v>
@@ -651,7 +651,7 @@
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B21">
         <f>SUM(B1:B20)</f>
-        <v>59</v>
+        <v>80</v>
       </c>
     </row>
   </sheetData>

--- a/index/字数统计.xlsx
+++ b/index/字数统计.xlsx
@@ -459,7 +459,7 @@
   <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -483,7 +483,7 @@
         <v>7</v>
       </c>
       <c r="B2">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="C2" t="s">
         <v>1</v>
@@ -651,7 +651,7 @@
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B21">
         <f>SUM(B1:B20)</f>
-        <v>80</v>
+        <v>88</v>
       </c>
     </row>
   </sheetData>

--- a/index/字数统计.xlsx
+++ b/index/字数统计.xlsx
@@ -483,7 +483,7 @@
         <v>7</v>
       </c>
       <c r="B2">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C2" t="s">
         <v>1</v>
@@ -651,7 +651,7 @@
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B21">
         <f>SUM(B1:B20)</f>
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
   </sheetData>

--- a/index/字数统计.xlsx
+++ b/index/字数统计.xlsx
@@ -1,26 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28109"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="27729"/>
   <workbookPr autoCompressPictures="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liu.yan/Desktop/code/4book/index/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14540" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14540" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="150001" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
     </ext>
   </extLst>
 </workbook>
@@ -177,11 +172,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="5">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
@@ -448,7 +443,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -459,15 +454,15 @@
   <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="24.5" customWidth="1"/>
+    <col min="1" max="1" width="24.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>6</v>
       </c>
@@ -478,7 +473,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -489,7 +484,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -500,7 +495,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -508,7 +503,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -519,7 +514,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -530,7 +525,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -541,7 +536,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3">
       <c r="A8" t="s">
         <v>13</v>
       </c>
@@ -552,18 +547,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3">
       <c r="A9" t="s">
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="C9" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3">
       <c r="A10" t="s">
         <v>15</v>
       </c>
@@ -574,7 +569,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3">
       <c r="A11" t="s">
         <v>16</v>
       </c>
@@ -585,7 +580,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3">
       <c r="A12" t="s">
         <v>17</v>
       </c>
@@ -596,7 +591,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3">
       <c r="A13" t="s">
         <v>18</v>
       </c>
@@ -607,7 +602,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3">
       <c r="A14" t="s">
         <v>5</v>
       </c>
@@ -618,45 +613,50 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3">
       <c r="A15" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3">
       <c r="A16" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2">
       <c r="A17" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:2">
       <c r="A18" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:2">
       <c r="A19" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:2">
       <c r="A20" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:2">
       <c r="B21">
         <f>SUM(B1:B20)</f>
-        <v>90</v>
+        <v>129</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/index/字数统计.xlsx
+++ b/index/字数统计.xlsx
@@ -443,7 +443,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -454,7 +454,7 @@
   <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0"/>
@@ -596,7 +596,7 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="C13" t="s">
         <v>0</v>
@@ -646,7 +646,7 @@
     <row r="21" spans="1:2">
       <c r="B21">
         <f>SUM(B1:B20)</f>
-        <v>129</v>
+        <v>136</v>
       </c>
     </row>
   </sheetData>

--- a/index/字数统计.xlsx
+++ b/index/字数统计.xlsx
@@ -596,7 +596,7 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C13" t="s">
         <v>0</v>
@@ -646,7 +646,7 @@
     <row r="21" spans="1:2">
       <c r="B21">
         <f>SUM(B1:B20)</f>
-        <v>136</v>
+        <v>139</v>
       </c>
     </row>
   </sheetData>

--- a/index/字数统计.xlsx
+++ b/index/字数统计.xlsx
@@ -1,21 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="27729"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28109"/>
   <workbookPr autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liu.yan/Desktop/code/4book/index/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14540" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14540" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
-    </ext>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
     </ext>
   </extLst>
 </workbook>
@@ -172,11 +177,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="5">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="普通" xfId="0" builtinId="0"/>
+    <cellStyle name="已访问的超链接" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="4" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
@@ -443,7 +448,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -454,15 +459,15 @@
   <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="24.42578125" customWidth="1"/>
+    <col min="1" max="1" width="24.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>6</v>
       </c>
@@ -473,7 +478,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -484,7 +489,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -495,7 +500,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -503,7 +508,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -514,7 +519,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -525,7 +530,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -536,18 +541,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>13</v>
       </c>
       <c r="B8">
-        <v>46</v>
+        <v>73</v>
       </c>
       <c r="C8" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>14</v>
       </c>
@@ -558,7 +563,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>15</v>
       </c>
@@ -569,7 +574,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>16</v>
       </c>
@@ -580,7 +585,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>17</v>
       </c>
@@ -591,7 +596,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>18</v>
       </c>
@@ -602,7 +607,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>5</v>
       </c>
@@ -613,50 +618,45 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B21">
         <f>SUM(B1:B20)</f>
-        <v>139</v>
+        <v>166</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
--- a/index/字数统计.xlsx
+++ b/index/字数统计.xlsx
@@ -459,7 +459,7 @@
   <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -546,7 +546,7 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="C8" t="s">
         <v>0</v>
@@ -651,7 +651,7 @@
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B21">
         <f>SUM(B1:B20)</f>
-        <v>166</v>
+        <v>173</v>
       </c>
     </row>
   </sheetData>

--- a/index/字数统计.xlsx
+++ b/index/字数统计.xlsx
@@ -459,7 +459,7 @@
   <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -622,6 +622,9 @@
       <c r="A15" t="s">
         <v>19</v>
       </c>
+      <c r="B15">
+        <v>14</v>
+      </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
@@ -651,7 +654,7 @@
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B21">
         <f>SUM(B1:B20)</f>
-        <v>173</v>
+        <v>187</v>
       </c>
     </row>
   </sheetData>

--- a/index/字数统计.xlsx
+++ b/index/字数统计.xlsx
@@ -623,7 +623,7 @@
         <v>19</v>
       </c>
       <c r="B15">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
@@ -654,7 +654,7 @@
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B21">
         <f>SUM(B1:B20)</f>
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
   </sheetData>

--- a/index/字数统计.xlsx
+++ b/index/字数统计.xlsx
@@ -459,7 +459,7 @@
   <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -483,7 +483,7 @@
         <v>7</v>
       </c>
       <c r="B2">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="C2" t="s">
         <v>1</v>
@@ -546,7 +546,7 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C8" t="s">
         <v>0</v>
@@ -654,7 +654,7 @@
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B21">
         <f>SUM(B1:B20)</f>
-        <v>185</v>
+        <v>200</v>
       </c>
     </row>
   </sheetData>

--- a/index/字数统计.xlsx
+++ b/index/字数统计.xlsx
@@ -459,7 +459,7 @@
   <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -494,7 +494,7 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="C3" t="s">
         <v>2</v>
@@ -654,7 +654,7 @@
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B21">
         <f>SUM(B1:B20)</f>
-        <v>200</v>
+        <v>218</v>
       </c>
     </row>
   </sheetData>

--- a/index/字数统计.xlsx
+++ b/index/字数统计.xlsx
@@ -459,7 +459,7 @@
   <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -568,7 +568,7 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="C10" t="s">
         <v>0</v>
@@ -654,7 +654,7 @@
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B21">
         <f>SUM(B1:B20)</f>
-        <v>218</v>
+        <v>233</v>
       </c>
     </row>
   </sheetData>

--- a/index/字数统计.xlsx
+++ b/index/字数统计.xlsx
@@ -1,26 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28109"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="27729"/>
   <workbookPr autoCompressPictures="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liu.yan/Desktop/code/4book/index/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14540" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14540" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="150001" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
     </ext>
   </extLst>
 </workbook>
@@ -177,11 +172,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="5">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
@@ -448,7 +443,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -459,15 +454,15 @@
   <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="24.5" customWidth="1"/>
+    <col min="1" max="1" width="24.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>6</v>
       </c>
@@ -478,7 +473,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -489,7 +484,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -500,7 +495,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -508,7 +503,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -519,7 +514,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -530,18 +525,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3">
       <c r="A7" t="s">
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="C7" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3">
       <c r="A8" t="s">
         <v>13</v>
       </c>
@@ -552,7 +547,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3">
       <c r="A9" t="s">
         <v>14</v>
       </c>
@@ -563,7 +558,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3">
       <c r="A10" t="s">
         <v>15</v>
       </c>
@@ -574,7 +569,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3">
       <c r="A11" t="s">
         <v>16</v>
       </c>
@@ -585,7 +580,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3">
       <c r="A12" t="s">
         <v>17</v>
       </c>
@@ -596,7 +591,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3">
       <c r="A13" t="s">
         <v>18</v>
       </c>
@@ -607,7 +602,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3">
       <c r="A14" t="s">
         <v>5</v>
       </c>
@@ -618,7 +613,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3">
       <c r="A15" t="s">
         <v>19</v>
       </c>
@@ -626,40 +621,45 @@
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3">
       <c r="A16" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2">
       <c r="A17" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:2">
       <c r="A18" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:2">
       <c r="A19" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:2">
       <c r="A20" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:2">
       <c r="B21">
         <f>SUM(B1:B20)</f>
-        <v>233</v>
+        <v>242</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/index/字数统计.xlsx
+++ b/index/字数统计.xlsx
@@ -530,7 +530,7 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C7" t="s">
         <v>3</v>
@@ -649,7 +649,7 @@
     <row r="21" spans="1:2">
       <c r="B21">
         <f>SUM(B1:B20)</f>
-        <v>242</v>
+        <v>247</v>
       </c>
     </row>
   </sheetData>

--- a/index/字数统计.xlsx
+++ b/index/字数统计.xlsx
@@ -443,7 +443,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -530,7 +530,7 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="C7" t="s">
         <v>3</v>
@@ -649,7 +649,7 @@
     <row r="21" spans="1:2">
       <c r="B21">
         <f>SUM(B1:B20)</f>
-        <v>247</v>
+        <v>254</v>
       </c>
     </row>
   </sheetData>

--- a/index/字数统计.xlsx
+++ b/index/字数统计.xlsx
@@ -454,7 +454,7 @@
   <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0"/>
@@ -530,7 +530,7 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C7" t="s">
         <v>3</v>
@@ -649,7 +649,7 @@
     <row r="21" spans="1:2">
       <c r="B21">
         <f>SUM(B1:B20)</f>
-        <v>254</v>
+        <v>259</v>
       </c>
     </row>
   </sheetData>

--- a/index/字数统计.xlsx
+++ b/index/字数统计.xlsx
@@ -443,7 +443,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -454,7 +454,7 @@
   <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0"/>
@@ -508,7 +508,7 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="C5" t="s">
         <v>0</v>
@@ -649,7 +649,7 @@
     <row r="21" spans="1:2">
       <c r="B21">
         <f>SUM(B1:B20)</f>
-        <v>259</v>
+        <v>272</v>
       </c>
     </row>
   </sheetData>

--- a/index/字数统计.xlsx
+++ b/index/字数统计.xlsx
@@ -443,7 +443,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -508,7 +508,7 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C5" t="s">
         <v>0</v>
@@ -649,7 +649,7 @@
     <row r="21" spans="1:2">
       <c r="B21">
         <f>SUM(B1:B20)</f>
-        <v>272</v>
+        <v>277</v>
       </c>
     </row>
   </sheetData>

--- a/index/字数统计.xlsx
+++ b/index/字数统计.xlsx
@@ -443,7 +443,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>

--- a/index/字数统计.xlsx
+++ b/index/字数统计.xlsx
@@ -1,21 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="27729"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28109"/>
   <workbookPr autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liu.yan/Desktop/code/4book/index/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14540" tabRatio="500"/>
+    <workbookView xWindow="14660" yWindow="1220" windowWidth="25600" windowHeight="14540" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
-    </ext>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
     </ext>
   </extLst>
 </workbook>
@@ -172,11 +177,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="5">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="普通" xfId="0" builtinId="0"/>
+    <cellStyle name="已访问的超链接" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="4" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
@@ -443,7 +448,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -454,15 +459,15 @@
   <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="24.42578125" customWidth="1"/>
+    <col min="1" max="1" width="24.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>6</v>
       </c>
@@ -473,7 +478,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -484,7 +489,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -495,7 +500,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -503,7 +508,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -514,7 +519,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -525,7 +530,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -536,7 +541,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>13</v>
       </c>
@@ -547,7 +552,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>14</v>
       </c>
@@ -558,18 +563,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>15</v>
       </c>
       <c r="B10">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="C10" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>16</v>
       </c>
@@ -580,7 +585,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>17</v>
       </c>
@@ -591,7 +596,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>18</v>
       </c>
@@ -602,7 +607,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>5</v>
       </c>
@@ -613,7 +618,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>19</v>
       </c>
@@ -621,45 +626,40 @@
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B21">
         <f>SUM(B1:B20)</f>
-        <v>277</v>
+        <v>284</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
--- a/index/字数统计.xlsx
+++ b/index/字数统计.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="14660" yWindow="1220" windowWidth="25600" windowHeight="14540" tabRatio="500"/>
+    <workbookView xWindow="4000" yWindow="2020" windowWidth="25600" windowHeight="14540" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -459,7 +459,7 @@
   <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/index/字数统计.xlsx
+++ b/index/字数统计.xlsx
@@ -459,7 +459,7 @@
   <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -483,7 +483,7 @@
         <v>7</v>
       </c>
       <c r="B2">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="C2" t="s">
         <v>1</v>
@@ -654,7 +654,7 @@
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B21">
         <f>SUM(B1:B20)</f>
-        <v>284</v>
+        <v>290</v>
       </c>
     </row>
   </sheetData>

--- a/index/字数统计.xlsx
+++ b/index/字数统计.xlsx
@@ -459,7 +459,7 @@
   <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -546,7 +546,7 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="C8" t="s">
         <v>0</v>
@@ -654,7 +654,7 @@
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B21">
         <f>SUM(B1:B20)</f>
-        <v>290</v>
+        <v>293</v>
       </c>
     </row>
   </sheetData>

--- a/index/字数统计.xlsx
+++ b/index/字数统计.xlsx
@@ -546,7 +546,7 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C8" t="s">
         <v>0</v>
@@ -654,7 +654,7 @@
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B21">
         <f>SUM(B1:B20)</f>
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
   </sheetData>

--- a/index/字数统计.xlsx
+++ b/index/字数统计.xlsx
@@ -1,33 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28109"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="27729"/>
   <workbookPr autoCompressPictures="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liu.yan/Desktop/code/4book/index/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="4000" yWindow="2020" windowWidth="25600" windowHeight="14540" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14660" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="150001" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="19">
   <si>
     <t>*</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -90,24 +85,6 @@
   </si>
   <si>
     <t>13章</t>
-  </si>
-  <si>
-    <t>15章</t>
-  </si>
-  <si>
-    <t>16章</t>
-  </si>
-  <si>
-    <t>17章</t>
-  </si>
-  <si>
-    <t>18章</t>
-  </si>
-  <si>
-    <t>19章</t>
-  </si>
-  <si>
-    <t>20章</t>
   </si>
 </sst>
 </file>
@@ -177,11 +154,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="5">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
@@ -448,7 +425,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -459,15 +436,15 @@
   <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="24.5" customWidth="1"/>
+    <col min="1" max="1" width="24.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>6</v>
       </c>
@@ -478,7 +455,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -489,7 +466,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -500,7 +477,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -508,7 +485,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -519,18 +496,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3">
       <c r="A6" t="s">
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="C6" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -541,7 +518,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3">
       <c r="A8" t="s">
         <v>13</v>
       </c>
@@ -552,7 +529,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3">
       <c r="A9" t="s">
         <v>14</v>
       </c>
@@ -563,7 +540,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3">
       <c r="A10" t="s">
         <v>15</v>
       </c>
@@ -574,18 +551,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3">
       <c r="A11" t="s">
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="C11" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3">
       <c r="A12" t="s">
         <v>17</v>
       </c>
@@ -596,7 +573,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3">
       <c r="A13" t="s">
         <v>18</v>
       </c>
@@ -607,7 +584,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3">
       <c r="A14" t="s">
         <v>5</v>
       </c>
@@ -618,48 +595,20 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>19</v>
-      </c>
-      <c r="B15">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:2">
       <c r="B21">
         <f>SUM(B1:B20)</f>
-        <v>294</v>
+        <v>301</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/index/字数统计.xlsx
+++ b/index/字数统计.xlsx
@@ -1,28 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="27729"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28109"/>
   <workbookPr autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liu.yan/Desktop/code/4book/index/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14660" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14660" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
-    </ext>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="17">
   <si>
     <t>*</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -38,13 +43,6 @@
   <si>
     <t>*</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>*</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>14章</t>
   </si>
   <si>
     <t>1章</t>
@@ -154,11 +152,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="5">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="普通" xfId="0" builtinId="0"/>
+    <cellStyle name="已访问的超链接" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="4" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
@@ -425,7 +423,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -433,20 +431,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="A14" sqref="A14:XFD14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="24.42578125" customWidth="1"/>
+    <col min="1" max="1" width="24.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B1">
         <v>0</v>
@@ -455,9 +453,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B2">
         <v>50</v>
@@ -466,9 +464,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B3">
         <v>18</v>
@@ -477,17 +475,17 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B4">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B5">
         <v>18</v>
@@ -496,9 +494,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B6">
         <v>7</v>
@@ -507,9 +505,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B7">
         <v>26</v>
@@ -518,9 +516,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B8">
         <v>86</v>
@@ -529,9 +527,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B9">
         <v>39</v>
@@ -540,9 +538,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B10">
         <v>22</v>
@@ -551,9 +549,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B11">
         <v>12</v>
@@ -562,20 +560,20 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B12">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="C12" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B13">
         <v>10</v>
@@ -584,20 +582,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
-      <c r="A14" t="s">
-        <v>5</v>
-      </c>
-      <c r="B14">
-        <v>13</v>
-      </c>
-      <c r="C14" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="21" spans="2:2">
-      <c r="B21">
-        <f>SUM(B1:B20)</f>
+    <row r="20" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B20">
+        <f>SUM(B1:B19)</f>
         <v>301</v>
       </c>
     </row>
@@ -605,10 +592,5 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
--- a/index/字数统计.xlsx
+++ b/index/字数统计.xlsx
@@ -434,7 +434,7 @@
   <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14:XFD14"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -480,7 +480,7 @@
         <v>7</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -585,7 +585,7 @@
     <row r="20" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B20">
         <f>SUM(B1:B19)</f>
-        <v>301</v>
+        <v>314</v>
       </c>
     </row>
   </sheetData>
